--- a/Sensitivity_Study_SS_LR_Gamma_ReLU.xlsx
+++ b/Sensitivity_Study_SS_LR_Gamma_ReLU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Article_Empirical_Study\Revision-1-Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Research_Article_REINFORCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A32C2F-334E-4EF4-A295-A5DF69CDEC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F8600-41A7-4816-A7D6-71B4D66871A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="244" xr2:uid="{4B264049-BA9E-400D-B572-E9C7F9CB2874}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="244" activeTab="1" xr2:uid="{4B264049-BA9E-400D-B572-E9C7F9CB2874}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity_Analysis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Environment</t>
   </si>
@@ -240,7 +240,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -854,13 +854,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -868,8 +868,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4434,7 +4434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E67E3-8648-46B3-865F-22EF3EA00FDC}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5343,7 +5343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5474,10 +5474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73384F8B-50BF-445B-AFD0-E7F3154F9991}">
-  <dimension ref="A1:T809"/>
+  <dimension ref="A1:AD809"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X53" sqref="X53"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5490,7 +5490,7 @@
     <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="25"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>49</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>-1.6038090462500008</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>50</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>7.641052876064254E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
@@ -5712,8 +5712,29 @@
       <c r="S4" s="12">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="AA4" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>43</v>
       </c>
@@ -5786,8 +5807,29 @@
       <c r="T5" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X5" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>2.0966731249999948</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1.6934922399999983</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>-0.12253664749999976</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>-0.6690790924999992</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>-1.2727223737499991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
@@ -5845,8 +5887,26 @@
       <c r="T6" s="5">
         <v>6.1234028509038745E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>6.1234028509038745E-2</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>8.1354727261985976E-2</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>6.8163205712209865E-2</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>2.5708362237532482E-2</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>7.6313826030685681E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
@@ -5905,7 +5965,7 @@
         <v>8.1354727261985976E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5932,7 +5992,7 @@
         <v>6.8163205712209865E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
@@ -5990,8 +6050,28 @@
       <c r="T9" s="5">
         <v>2.5708362237532482E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z9" s="5">
+        <f>Z5-Z6</f>
+        <v>2.0354390964909559</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" ref="AA9:AD9" si="4">AA5-AA6</f>
+        <v>1.6121375127380124</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.19069985321220961</v>
+      </c>
+      <c r="AC9" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.69478745473753167</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.2803537563530676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-1.143564</v>
       </c>
@@ -6046,8 +6126,28 @@
       <c r="T10" s="5">
         <v>7.6313826030685681E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z10" s="5">
+        <f>Z5+Z6</f>
+        <v>2.1579071535090337</v>
+      </c>
+      <c r="AA10" s="5">
+        <f>AA5+AA6</f>
+        <v>1.7748469672619842</v>
+      </c>
+      <c r="AB10" s="5">
+        <f>AB5+AB6</f>
+        <v>-5.4373441787789897E-2</v>
+      </c>
+      <c r="AC10" s="5">
+        <f>AC5+AC6</f>
+        <v>-0.64337073026246672</v>
+      </c>
+      <c r="AD10" s="5">
+        <f>AD5+AD6</f>
+        <v>-1.2650909911469306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-0.87675599999999898</v>
       </c>
@@ -6094,7 +6194,7 @@
         <v>-1.6785669999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-1.20393699999999</v>
       </c>
@@ -6141,7 +6241,7 @@
         <v>-1.6912430000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-0.70608099999999896</v>
       </c>
@@ -6188,7 +6288,7 @@
         <v>-1.6952199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>-0.89141300000000001</v>
       </c>
@@ -6235,7 +6335,7 @@
         <v>-1.5048699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>-0.95065699999999997</v>
       </c>
@@ -6282,7 +6382,7 @@
         <v>-1.6628780000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-0.86346299999999898</v>
       </c>
